--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.15/avg_0.002_scores.xlsx
@@ -55,6 +55,9 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
@@ -73,286 +76,301 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>apples</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wedding</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>bun</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wedding</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
     <t>pop</t>
   </si>
   <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>book</t>
+    <t>pan</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>dish</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>exactly</t>
+    <t>making</t>
   </si>
   <si>
     <t>far</t>
   </si>
   <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>big</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>little</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>hot</t>
@@ -361,49 +379,31 @@
     <t>make</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>made</t>
   </si>
   <si>
     <t>use</t>
@@ -767,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>131</v>
@@ -857,16 +857,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -907,16 +907,16 @@
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -936,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.90625</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -986,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3207547169811321</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1036,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2403100775193799</v>
+        <v>0.2945736434108527</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8436532507739938</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L7">
-        <v>545</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>545</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1086,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1919191919191919</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8421052631578947</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>542</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>542</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,63 +1136,87 @@
         <v>14</v>
       </c>
       <c r="B9">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>77</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L9">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>38</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>0.0918918918918919</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>168</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.8405797101449275</v>
-      </c>
-      <c r="L9">
-        <v>58</v>
-      </c>
-      <c r="M9">
-        <v>58</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,21 +1228,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1230,21 +1254,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7307692307692307</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,21 +1280,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7045454545454546</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,21 +1306,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.6986301369863014</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,21 +1332,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.6926406926406926</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L15">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,21 +1358,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6623376623376623</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,21 +1384,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6571428571428571</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,21 +1410,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6538461538461539</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,21 +1436,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.647887323943662</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1438,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6271186440677966</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L20">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1464,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6235955056179775</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L21">
-        <v>777</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>777</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1490,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>469</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1516,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6111111111111112</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>770</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>770</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1542,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L24">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1568,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5918367346938775</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1594,21 +1618,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1620,21 +1644,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1646,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5692307692307692</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1672,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5666666666666667</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1698,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5614035087719298</v>
+        <v>0.5625</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1724,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1750,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5416666666666666</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1776,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>0.5384615384615384</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1802,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1828,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.53125</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1854,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.5089820359281437</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L36">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="M36">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1880,21 +1904,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.4819277108433735</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1906,21 +1930,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.4705882352941176</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1932,21 +1956,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>0.4615384615384616</v>
       </c>
       <c r="L39">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1958,21 +1982,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.4615384615384616</v>
+        <v>0.4610778443113773</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1984,21 +2008,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.4511278195488722</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L41">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2010,21 +2034,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.4444444444444444</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2036,21 +2060,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.4358974358974359</v>
+        <v>0.45</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2062,21 +2086,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.4285714285714285</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L44">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M44">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2088,12 +2112,12 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K45">
         <v>0.425</v>
@@ -2119,16 +2143,16 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.42</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2140,21 +2164,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>0.4098360655737705</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2166,21 +2190,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>0.4078947368421053</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2192,21 +2216,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49">
-        <v>0.3950617283950617</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2218,21 +2242,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K50">
-        <v>0.3815789473684211</v>
+        <v>0.375</v>
       </c>
       <c r="L50">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2244,21 +2268,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K51">
-        <v>0.3795180722891566</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L51">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2270,21 +2294,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K52">
-        <v>0.3676470588235294</v>
+        <v>0.3674698795180723</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M52">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2296,12 +2320,12 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K53">
         <v>0.3673469387755102</v>
@@ -2327,16 +2351,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K54">
-        <v>0.3658536585365854</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2348,21 +2372,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K55">
-        <v>0.3657587548638132</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L55">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2374,21 +2398,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K56">
-        <v>0.3602941176470588</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L56">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2400,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K57">
-        <v>0.3423423423423423</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2426,21 +2450,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K58">
-        <v>0.3260869565217391</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2452,21 +2476,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K59">
-        <v>0.3214285714285715</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2483,16 +2507,16 @@
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K60">
-        <v>0.3166666666666667</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2504,21 +2528,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61">
-        <v>0.316546762589928</v>
+        <v>0.2808219178082192</v>
       </c>
       <c r="L61">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="M61">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2530,21 +2554,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>95</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K62">
-        <v>0.3157894736842105</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L62">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2556,21 +2580,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K63">
-        <v>0.3090909090909091</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2582,21 +2606,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K64">
-        <v>0.2903225806451613</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2613,16 +2637,16 @@
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K65">
-        <v>0.2777777777777778</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L65">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2634,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K66">
-        <v>0.2673267326732673</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2660,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K67">
-        <v>0.2575757575757576</v>
+        <v>0.25</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2686,38 +2710,38 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K68">
+        <v>0.25</v>
+      </c>
+      <c r="L68">
+        <v>27</v>
+      </c>
+      <c r="M68">
+        <v>27</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>81</v>
-      </c>
-      <c r="K68">
-        <v>0.2561643835616438</v>
-      </c>
-      <c r="L68">
-        <v>187</v>
-      </c>
-      <c r="M68">
-        <v>187</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>543</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K69">
         <v>0.2488038277511962</v>
@@ -2743,16 +2767,16 @@
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K70">
-        <v>0.2381465517241379</v>
+        <v>0.2384105960264901</v>
       </c>
       <c r="L70">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="M70">
-        <v>222</v>
+        <v>36</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2761,24 +2785,24 @@
         <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>707</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K71">
-        <v>0.2380952380952381</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2790,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>0.2361111111111111</v>
+        <v>0.2292787944025834</v>
       </c>
       <c r="L72">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2816,38 +2840,38 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>55</v>
+        <v>716</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K73">
+        <v>0.2252252252252252</v>
+      </c>
+      <c r="L73">
+        <v>25</v>
+      </c>
+      <c r="M73">
+        <v>25</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>86</v>
-      </c>
-      <c r="K73">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="L73">
-        <v>15</v>
-      </c>
-      <c r="M73">
-        <v>15</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>50</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K74">
         <v>0.2222222222222222</v>
@@ -2873,16 +2897,16 @@
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K75">
-        <v>0.2185430463576159</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2894,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>0.2142857142857143</v>
+        <v>0.2100313479623825</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2920,21 +2944,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>66</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K77">
-        <v>0.2117647058823529</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2946,21 +2970,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>0.2110091743119266</v>
+        <v>0.2</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2972,21 +2996,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K79">
-        <v>0.2037617554858934</v>
+        <v>0.2</v>
       </c>
       <c r="L79">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2998,21 +3022,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>254</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K80">
-        <v>0.1794871794871795</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="L80">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M80">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3024,21 +3048,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K81">
-        <v>0.174496644295302</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L81">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3050,12 +3074,12 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K82">
         <v>0.1739130434782609</v>
@@ -3081,7 +3105,7 @@
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K83">
         <v>0.1735099337748344</v>
@@ -3107,10 +3131,10 @@
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K84">
-        <v>0.1711711711711712</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L84">
         <v>19</v>
@@ -3128,21 +3152,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K85">
-        <v>0.1675191815856777</v>
+        <v>0.1560102301790281</v>
       </c>
       <c r="L85">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M85">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3154,73 +3178,73 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K86">
-        <v>0.1616161616161616</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K87">
-        <v>0.1607142857142857</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M87">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K88">
-        <v>0.1557377049180328</v>
+        <v>0.15</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M88">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3232,21 +3256,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K89">
-        <v>0.1515151515151515</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L89">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M89">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3258,21 +3282,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K90">
-        <v>0.1384615384615385</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L90">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M90">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3284,21 +3308,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K91">
-        <v>0.1317829457364341</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L91">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3310,47 +3334,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K92">
-        <v>0.121654501216545</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="L92">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M92">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K93">
-        <v>0.1158536585365854</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3362,21 +3386,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>145</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K94">
-        <v>0.1145038167938931</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M94">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3388,47 +3412,47 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K95">
-        <v>0.1135135135135135</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L95">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M95">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N95">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>328</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K96">
-        <v>0.1129943502824859</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L96">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3440,21 +3464,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K97">
-        <v>0.1104294478527607</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3471,16 +3495,16 @@
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K98">
-        <v>0.1090909090909091</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L98">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M98">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3492,21 +3516,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>392</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K99">
-        <v>0.1065292096219931</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L99">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M99">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3518,21 +3542,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>260</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K100">
-        <v>0.09663865546218488</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L100">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M100">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3544,21 +3568,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>215</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K101">
-        <v>0.0962962962962963</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L101">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M101">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3570,21 +3594,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>244</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K102">
-        <v>0.09615384615384616</v>
+        <v>0.09772727272727273</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3596,21 +3620,21 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>141</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K103">
-        <v>0.09225092250922509</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="L103">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M103">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3622,47 +3646,47 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>246</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K104">
-        <v>0.09178743961352658</v>
+        <v>0.08856088560885608</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M104">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N104">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>188</v>
+        <v>247</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K105">
-        <v>0.08771929824561403</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L105">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M105">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3674,21 +3698,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>416</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K106">
-        <v>0.0846774193548387</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="L106">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M106">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3700,38 +3724,38 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K107">
-        <v>0.07881773399014778</v>
+        <v>0.07890961262553801</v>
       </c>
       <c r="L107">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="M107">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107">
-        <v>187</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K108">
         <v>0.07360406091370558</v>
@@ -3757,42 +3781,42 @@
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K109">
-        <v>0.07173601147776183</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L109">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M109">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N109">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>647</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K110">
-        <v>0.07159904534606205</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L110">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M110">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3804,21 +3828,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>389</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K111">
-        <v>0.05514705882352941</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L111">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M111">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3830,73 +3854,73 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>257</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K112">
-        <v>0.05494505494505494</v>
+        <v>0.04606525911708254</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N112">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O112">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>344</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K113">
-        <v>0.05037313432835821</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="L113">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M113">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>1018</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K114">
-        <v>0.04981549815498155</v>
+        <v>0.03690036900369004</v>
       </c>
       <c r="L114">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M114">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3908,21 +3932,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K115">
-        <v>0.04644808743169399</v>
+        <v>0.03623188405797102</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -3934,21 +3958,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>349</v>
+        <v>399</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K116">
-        <v>0.03831417624521073</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="L116">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M116">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -3960,33 +3984,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="117" spans="10:17">
-      <c r="J117" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K117">
-        <v>0.02508650519031142</v>
-      </c>
-      <c r="L117">
-        <v>29</v>
-      </c>
-      <c r="M117">
-        <v>30</v>
-      </c>
-      <c r="N117">
-        <v>0.97</v>
-      </c>
-      <c r="O117">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P117" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q117">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
